--- a/public/Spreadsheets/municipalityOverview.xlsx
+++ b/public/Spreadsheets/municipalityOverview.xlsx
@@ -23,10 +23,10 @@
     <t>Total revenue</t>
   </si>
   <si>
-    <t>Total yield</t>
-  </si>
-  <si>
-    <t>Total surplus</t>
+    <t>Total yield (KWH)</t>
+  </si>
+  <si>
+    <t>Total surplus (KWH)</t>
   </si>
   <si>
     <t>Zaanstad</t>
@@ -422,8 +422,8 @@
   <cols>
     <col min="1" max="1" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/public/Spreadsheets/municipalityOverview.xlsx
+++ b/public/Spreadsheets/municipalityOverview.xlsx
@@ -32,37 +32,37 @@
     <t>Zaanstad</t>
   </si>
   <si>
-    <t>€1820.54</t>
+    <t>€1104.87</t>
   </si>
   <si>
     <t>Sittard-Geleen</t>
   </si>
   <si>
-    <t>€1330.67</t>
+    <t>€273.26</t>
   </si>
   <si>
     <t>Haarlem</t>
   </si>
   <si>
-    <t>€1680.04</t>
+    <t>€195.09</t>
   </si>
   <si>
     <t>Amstelveen</t>
   </si>
   <si>
-    <t>€1662.75</t>
+    <t>€1041.67</t>
   </si>
   <si>
     <t>Amsterdam</t>
   </si>
   <si>
-    <t>€4259.41</t>
+    <t>€1996.18</t>
   </si>
   <si>
     <t>Rotterdam</t>
   </si>
   <si>
-    <t>€1448.54</t>
+    <t>€48.64</t>
   </si>
 </sst>
 </file>
@@ -448,10 +448,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2762.44</v>
+        <v>1565.33</v>
       </c>
       <c r="D2">
-        <v>1264.94</v>
+        <v>672.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -462,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2617.68</v>
+        <v>705.82</v>
       </c>
       <c r="D3">
-        <v>1439.18</v>
+        <v>440.21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -476,10 +476,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2874.94</v>
+        <v>316.32</v>
       </c>
       <c r="D4">
-        <v>1447.33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -490,10 +490,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2755.96</v>
+        <v>1721.25</v>
       </c>
       <c r="D5">
-        <v>1355.58</v>
+        <v>844.69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -504,10 +504,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7879.56</v>
+        <v>3905.91</v>
       </c>
       <c r="D6">
-        <v>4177.3</v>
+        <v>2140.95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -518,10 +518,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>2825.9</v>
+        <v>257.51</v>
       </c>
       <c r="D7">
-        <v>1546.33</v>
+        <v>191.74</v>
       </c>
     </row>
   </sheetData>
